--- a/doc/Final-sep.xlsx
+++ b/doc/Final-sep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albara.ramli/Desktop/app/curve/eye-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AA8DC3-C426-3043-8E31-8BA5736AD720}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B43CF7-1F17-024A-AFF2-6289C3A9B6E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25440" windowHeight="13980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -188,7 +188,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -368,6 +368,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -529,11 +535,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -15130,8 +15137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F506"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="38" zoomScaleNormal="38" workbookViewId="0">
-      <selection activeCell="AG83" sqref="AG83"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="50" zoomScaleNormal="38" workbookViewId="0">
+      <selection activeCell="G224" sqref="G224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16240,22 +16247,22 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>16</v>
-      </c>
-      <c r="B56">
+      <c r="A56" s="2">
+        <v>16</v>
+      </c>
+      <c r="B56" s="2">
         <v>55</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="2">
         <v>1.43E-2</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="2">
         <v>0.99439999999999995</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="2">
         <v>2.53E-2</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="2">
         <v>0.99260000000000004</v>
       </c>
     </row>
@@ -18260,22 +18267,22 @@
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157">
+      <c r="A157" s="2">
         <v>8</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="2">
         <v>55</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="2">
         <v>2.0899999999999998E-2</v>
       </c>
-      <c r="D157">
+      <c r="D157" s="2">
         <v>0.99390000000000001</v>
       </c>
-      <c r="E157">
+      <c r="E157" s="2">
         <v>3.0200000000000001E-2</v>
       </c>
-      <c r="F157">
+      <c r="F157" s="2">
         <v>0.99239999999999995</v>
       </c>
     </row>
@@ -19620,22 +19627,22 @@
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A225">
-        <v>16</v>
-      </c>
-      <c r="B225">
+      <c r="A225" s="2">
+        <v>16</v>
+      </c>
+      <c r="B225" s="2">
         <v>22</v>
       </c>
-      <c r="C225">
+      <c r="C225" s="2">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="D225">
+      <c r="D225" s="2">
         <v>0.99299999999999999</v>
       </c>
-      <c r="E225">
+      <c r="E225" s="2">
         <v>2.5499999999999998E-2</v>
       </c>
-      <c r="F225">
+      <c r="F225" s="2">
         <v>0.99199999999999999</v>
       </c>
     </row>

--- a/doc/Final-sep.xlsx
+++ b/doc/Final-sep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albara.ramli/Desktop/app/curve/eye-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B43CF7-1F17-024A-AFF2-6289C3A9B6E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B45575-3A23-4444-AB96-A99B2BAB5BD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25440" windowHeight="13980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14648,15 +14648,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>570579</xdr:colOff>
+      <xdr:colOff>408385</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>92029</xdr:rowOff>
+      <xdr:rowOff>15829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>213264</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>31026</xdr:rowOff>
+      <xdr:colOff>63005</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>158026</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14724,13 +14724,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>541867</xdr:colOff>
+      <xdr:colOff>404158</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>184551</xdr:colOff>
+      <xdr:colOff>46842</xdr:colOff>
       <xdr:row>97</xdr:row>
       <xdr:rowOff>141460</xdr:rowOff>
     </xdr:to>
@@ -14800,15 +14800,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
+      <xdr:colOff>390489</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>121798</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>201484</xdr:colOff>
+      <xdr:colOff>33173</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>90660</xdr:rowOff>
+      <xdr:rowOff>60058</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15137,8 +15137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F506"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="50" zoomScaleNormal="38" workbookViewId="0">
-      <selection activeCell="G224" sqref="G224"/>
+    <sheetView tabSelected="1" zoomScale="42" zoomScaleNormal="38" workbookViewId="0">
+      <selection activeCell="AI40" sqref="AI40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
